--- a/sample/pingcode-iBizPLM对照表.xlsx
+++ b/sample/pingcode-iBizPLM对照表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="352"/>
+    <workbookView windowHeight="17655" tabRatio="352"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$F$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">功能清单!$A$1:$F$519</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="386">
   <si>
     <t>序号</t>
   </si>
@@ -329,9 +329,6 @@
     <t>维护内外部用户</t>
   </si>
   <si>
-    <t>设置客户</t>
-  </si>
-  <si>
     <t>产品基线</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
   </si>
   <si>
     <t>维护基线</t>
-  </si>
-  <si>
-    <t>复制基线</t>
   </si>
   <si>
     <t>完成基线</t>
@@ -2251,10 +2245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F522"/>
+  <dimension ref="A1:F519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2451,7 +2445,9 @@
       <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
@@ -2461,7 +2457,9 @@
       <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
@@ -2537,7 +2535,9 @@
       <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
@@ -2559,7 +2559,9 @@
       <c r="D24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
@@ -2687,7 +2689,9 @@
       <c r="D35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
@@ -2863,7 +2867,9 @@
       <c r="D49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F49" s="4" t="s">
         <v>68</v>
       </c>
@@ -3163,7 +3169,9 @@
       <c r="D73" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F73" s="4" t="s">
         <v>91</v>
       </c>
@@ -3277,7 +3285,9 @@
       <c r="D82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:6">
@@ -3287,7 +3297,9 @@
       <c r="D83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:6">
@@ -3305,9 +3317,11 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:6">
@@ -3315,31 +3329,37 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E86" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:6">
+    <row r="87" spans="1:6">
       <c r="A87" s="3"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="C87" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="D87" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="C88" s="5"/>
       <c r="D88" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
@@ -3347,9 +3367,11 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6">
@@ -3357,9 +3379,11 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
@@ -3367,9 +3391,11 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6">
@@ -3377,9 +3403,11 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6">
@@ -3387,9 +3415,11 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
@@ -3399,7 +3429,9 @@
       <c r="D94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6">
@@ -3407,9 +3439,11 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6">
@@ -3417,29 +3451,33 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D97" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
         <v>108</v>
       </c>
@@ -3453,19 +3491,25 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="7">
+        <v>3</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="D100" s="4" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>9</v>
@@ -3473,15 +3517,9 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="7">
-        <v>3</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
       <c r="D101" s="4" t="s">
         <v>112</v>
       </c>
@@ -3490,12 +3528,12 @@
       </c>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" s="1" customFormat="1" spans="1:6">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="4" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>9</v>
@@ -3507,7 +3545,7 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>9</v>
@@ -3519,14 +3557,14 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:6">
+    <row r="105" spans="1:6">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -3543,11 +3581,9 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E106" s="3"/>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6">
@@ -3555,9 +3591,11 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6">
@@ -3565,7 +3603,7 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="4" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>9</v>
@@ -3579,7 +3617,9 @@
       <c r="D109" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6">
@@ -3589,20 +3629,24 @@
       <c r="D110" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" s="1" customFormat="1" spans="1:6">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="1:6">
+    <row r="112" spans="1:6">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -3639,9 +3683,9 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="4" t="s">
         <v>122</v>
       </c>
@@ -3651,11 +3695,17 @@
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D116" s="4" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>9</v>
@@ -3663,17 +3713,11 @@
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="B117" s="8" t="s">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>9</v>
@@ -3685,7 +3729,7 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>9</v>
@@ -3697,7 +3741,7 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="4"/>
@@ -3709,7 +3753,9 @@
       <c r="D120" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6">
@@ -3717,7 +3763,7 @@
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="4" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="4"/>
@@ -3727,7 +3773,7 @@
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="4" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="4"/>
@@ -3745,7 +3791,7 @@
     <row r="124" spans="1:6">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="4" t="s">
         <v>129</v>
       </c>
@@ -3755,19 +3801,21 @@
     <row r="125" spans="1:6">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="D125" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
-      <c r="C126" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="C126" s="10"/>
       <c r="D126" s="4" t="s">
         <v>132</v>
       </c>
@@ -3783,9 +3831,7 @@
       <c r="D127" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E127" s="3"/>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6">
@@ -3795,7 +3841,9 @@
       <c r="D128" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6">
@@ -3811,7 +3859,7 @@
     <row r="130" spans="1:6">
       <c r="A130" s="9"/>
       <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="4" t="s">
         <v>136</v>
       </c>
@@ -3821,19 +3869,21 @@
     <row r="131" spans="1:6">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
-      <c r="C131" s="12"/>
+      <c r="C131" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D131" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E131" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
-      <c r="C132" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="4" t="s">
         <v>139</v>
       </c>
@@ -3883,7 +3933,7 @@
       <c r="B136" s="10"/>
       <c r="C136" s="5"/>
       <c r="D136" s="4" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>9</v>
@@ -3895,7 +3945,7 @@
       <c r="B137" s="10"/>
       <c r="C137" s="5"/>
       <c r="D137" s="4" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>9</v>
@@ -3909,7 +3959,9 @@
       <c r="D138" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6">
@@ -3917,9 +3969,11 @@
       <c r="B139" s="10"/>
       <c r="C139" s="5"/>
       <c r="D139" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E139" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6">
@@ -3927,9 +3981,11 @@
       <c r="B140" s="10"/>
       <c r="C140" s="5"/>
       <c r="D140" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E140" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6">
@@ -3937,7 +3993,7 @@
       <c r="B141" s="10"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>9</v>
@@ -3949,7 +4005,7 @@
       <c r="B142" s="10"/>
       <c r="C142" s="5"/>
       <c r="D142" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>9</v>
@@ -3961,7 +4017,7 @@
       <c r="B143" s="10"/>
       <c r="C143" s="5"/>
       <c r="D143" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>9</v>
@@ -3973,7 +4029,7 @@
       <c r="B144" s="10"/>
       <c r="C144" s="5"/>
       <c r="D144" s="4" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>9</v>
@@ -4009,7 +4065,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="5"/>
       <c r="D147" s="4" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>9</v>
@@ -4021,7 +4077,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="5"/>
       <c r="D148" s="4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>9</v>
@@ -4057,7 +4113,7 @@
       <c r="B151" s="10"/>
       <c r="C151" s="5"/>
       <c r="D151" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>9</v>
@@ -4069,9 +4125,11 @@
       <c r="B152" s="10"/>
       <c r="C152" s="5"/>
       <c r="D152" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E152" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6">
@@ -4079,7 +4137,7 @@
       <c r="B153" s="10"/>
       <c r="C153" s="5"/>
       <c r="D153" s="4" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>9</v>
@@ -4103,19 +4161,19 @@
       <c r="B155" s="10"/>
       <c r="C155" s="5"/>
       <c r="D155" s="4" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" s="1" customFormat="1" spans="1:6">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="5"/>
       <c r="D156" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>9</v>
@@ -4127,7 +4185,7 @@
       <c r="B157" s="10"/>
       <c r="C157" s="5"/>
       <c r="D157" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>9</v>
@@ -4139,7 +4197,7 @@
       <c r="B158" s="10"/>
       <c r="C158" s="5"/>
       <c r="D158" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>9</v>
@@ -4151,25 +4209,27 @@
       <c r="B159" s="10"/>
       <c r="C159" s="5"/>
       <c r="D159" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" s="1" customFormat="1" spans="1:6">
+      <c r="F159" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="9"/>
       <c r="B160" s="10"/>
       <c r="C160" s="5"/>
       <c r="D160" s="4" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4177,7 +4237,7 @@
       <c r="B161" s="10"/>
       <c r="C161" s="5"/>
       <c r="D161" s="4" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>9</v>
@@ -4191,7 +4251,7 @@
       <c r="B162" s="10"/>
       <c r="C162" s="5"/>
       <c r="D162" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>9</v>
@@ -4205,13 +4265,13 @@
       <c r="B163" s="10"/>
       <c r="C163" s="5"/>
       <c r="D163" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4219,13 +4279,11 @@
       <c r="B164" s="10"/>
       <c r="C164" s="5"/>
       <c r="D164" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E164" s="3"/>
       <c r="F164" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4233,31 +4291,33 @@
       <c r="B165" s="10"/>
       <c r="C165" s="5"/>
       <c r="D165" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E165" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F165" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" spans="1:6">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
-      <c r="C166" s="5"/>
+      <c r="C166" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="D166" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="4"/>
     </row>
     <row r="167" s="1" customFormat="1" spans="1:6">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
-      <c r="C167" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="C167" s="10"/>
       <c r="D167" s="4" t="s">
         <v>160</v>
       </c>
@@ -4271,7 +4331,7 @@
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>9</v>
@@ -4295,7 +4355,7 @@
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="4" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>9</v>
@@ -4307,7 +4367,7 @@
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>9</v>
@@ -4319,7 +4379,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>9</v>
@@ -4331,7 +4391,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>9</v>
@@ -4343,7 +4403,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>9</v>
@@ -4355,7 +4415,7 @@
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="4" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>9</v>
@@ -4391,7 +4451,7 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="4" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>9</v>
@@ -4403,7 +4463,7 @@
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>9</v>
@@ -4439,7 +4499,7 @@
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>9</v>
@@ -4451,9 +4511,11 @@
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E183" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F183" s="4"/>
     </row>
     <row r="184" s="1" customFormat="1" spans="1:6">
@@ -4461,7 +4523,7 @@
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="4" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>9</v>
@@ -4473,7 +4535,7 @@
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="4" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>9</v>
@@ -4485,7 +4547,7 @@
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>9</v>
@@ -4497,7 +4559,7 @@
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>9</v>
@@ -4509,7 +4571,7 @@
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>9</v>
@@ -4521,25 +4583,27 @@
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F189" s="4"/>
+      <c r="F189" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="190" s="1" customFormat="1" spans="1:6">
       <c r="A190" s="9"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" spans="1:6">
@@ -4547,13 +4611,13 @@
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" spans="1:6">
@@ -4561,49 +4625,49 @@
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" spans="1:6">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="1" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
-      <c r="C194" s="12"/>
+      <c r="C194" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="D194" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
-      <c r="C195" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="C195" s="10"/>
       <c r="D195" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>9</v>
@@ -4615,7 +4679,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="4" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>9</v>
@@ -4651,33 +4715,35 @@
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3"/>
+      <c r="F199" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="4" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E201" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F201" s="4" t="s">
         <v>169</v>
       </c>
@@ -4685,25 +4751,23 @@
     <row r="202" spans="1:6">
       <c r="A202" s="9"/>
       <c r="B202" s="10"/>
-      <c r="C202" s="12"/>
+      <c r="C202" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="D202" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:6">
       <c r="A203" s="9"/>
       <c r="B203" s="10"/>
-      <c r="C203" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="C203" s="10"/>
       <c r="D203" s="4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>9</v>
@@ -4715,7 +4779,7 @@
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="4" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>9</v>
@@ -4734,52 +4798,58 @@
       </c>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" s="1" customFormat="1" spans="1:6">
+    <row r="206" spans="1:6">
       <c r="A206" s="9"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="9"/>
       <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F207" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="9"/>
       <c r="B208" s="10"/>
-      <c r="C208" s="12"/>
+      <c r="C208" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="D208" s="4" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="9"/>
       <c r="B209" s="10"/>
-      <c r="C209" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="C209" s="10"/>
       <c r="D209" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E209" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F209" s="4"/>
     </row>
     <row r="210" spans="1:6">
@@ -4787,9 +4857,11 @@
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E210" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F210" s="4"/>
     </row>
     <row r="211" spans="1:6">
@@ -4799,7 +4871,9 @@
       <c r="D211" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E211" s="3"/>
+      <c r="E211" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F211" s="4"/>
     </row>
     <row r="212" spans="1:6">
@@ -4809,91 +4883,101 @@
       <c r="D212" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="4"/>
+      <c r="E212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="9"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="9"/>
       <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
+      <c r="C214" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D214" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F214" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" s="1" customFormat="1" spans="1:6">
       <c r="A215" s="9"/>
       <c r="B215" s="10"/>
-      <c r="C215" s="12"/>
+      <c r="C215" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="D215" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>107</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" s="1" customFormat="1" spans="1:6">
       <c r="A216" s="9"/>
       <c r="B216" s="10"/>
-      <c r="C216" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="C216" s="10"/>
       <c r="D216" s="4" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="F216" s="4"/>
     </row>
     <row r="217" s="1" customFormat="1" spans="1:6">
       <c r="A217" s="9"/>
       <c r="B217" s="10"/>
-      <c r="C217" s="8" t="s">
-        <v>185</v>
-      </c>
+      <c r="C217" s="12"/>
       <c r="D217" s="4" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" s="1" customFormat="1" spans="1:6">
+    <row r="218" spans="1:6">
       <c r="A218" s="9"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
+      <c r="C218" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="D218" s="4" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" s="1" customFormat="1" spans="1:6">
+    <row r="219" spans="1:6">
       <c r="A219" s="9"/>
       <c r="B219" s="10"/>
-      <c r="C219" s="12"/>
+      <c r="C219" s="10"/>
       <c r="D219" s="4" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>9</v>
@@ -4903,13 +4987,13 @@
     <row r="220" spans="1:6">
       <c r="A220" s="9"/>
       <c r="B220" s="10"/>
-      <c r="C220" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="C220" s="10"/>
       <c r="D220" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6">
@@ -4925,7 +5009,7 @@
     <row r="222" spans="1:6">
       <c r="A222" s="9"/>
       <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
+      <c r="C222" s="12"/>
       <c r="D222" s="4" t="s">
         <v>189</v>
       </c>
@@ -4935,139 +5019,151 @@
     <row r="223" spans="1:6">
       <c r="A223" s="9"/>
       <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
+      <c r="C223" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D223" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E223" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F223" s="4"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="9"/>
       <c r="B224" s="10"/>
-      <c r="C224" s="12"/>
+      <c r="C224" s="10"/>
       <c r="D224" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E224" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F224" s="4"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="9"/>
       <c r="B225" s="10"/>
-      <c r="C225" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="C225" s="10"/>
       <c r="D225" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E225" s="3"/>
+      <c r="E225" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F225" s="4"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="9"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
       <c r="D226" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="9"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
+    <row r="227" s="1" customFormat="1" spans="1:6">
+      <c r="A227" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D227" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E227" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F227" s="4"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="11"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="D228" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="4"/>
-    </row>
-    <row r="229" s="1" customFormat="1" spans="1:6">
-      <c r="A229" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B229" s="8" t="s">
         <v>197</v>
       </c>
+      <c r="E228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="9"/>
+      <c r="B229" s="10"/>
       <c r="C229" s="4" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F229" s="4"/>
+      <c r="F229" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="9"/>
       <c r="B230" s="10"/>
       <c r="C230" s="4" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" s="1" customFormat="1" spans="1:6">
       <c r="A231" s="9"/>
       <c r="B231" s="10"/>
-      <c r="C231" s="4" t="s">
-        <v>201</v>
+      <c r="C231" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:6">
       <c r="A232" s="9"/>
       <c r="B232" s="10"/>
-      <c r="C232" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="C232" s="10"/>
       <c r="D232" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="F232" s="4"/>
     </row>
     <row r="233" s="1" customFormat="1" spans="1:6">
       <c r="A233" s="9"/>
       <c r="B233" s="10"/>
-      <c r="C233" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="C233" s="10"/>
       <c r="D233" s="4" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>9</v>
@@ -5079,7 +5175,7 @@
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
       <c r="D234" s="4" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>9</v>
@@ -5091,7 +5187,7 @@
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
       <c r="D235" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>9</v>
@@ -5103,7 +5199,7 @@
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
       <c r="D236" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>9</v>
@@ -5115,7 +5211,7 @@
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
       <c r="D237" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>9</v>
@@ -5127,7 +5223,7 @@
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
       <c r="D238" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>9</v>
@@ -5139,7 +5235,7 @@
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
       <c r="D239" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>9</v>
@@ -5151,7 +5247,7 @@
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
       <c r="D240" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>9</v>
@@ -5163,7 +5259,7 @@
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
       <c r="D241" s="4" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>9</v>
@@ -5175,7 +5271,7 @@
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
       <c r="D242" s="4" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>9</v>
@@ -5187,7 +5283,7 @@
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
       <c r="D243" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>9</v>
@@ -5199,7 +5295,7 @@
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
       <c r="D244" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>9</v>
@@ -5223,7 +5319,7 @@
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
       <c r="D246" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>9</v>
@@ -5235,7 +5331,7 @@
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
       <c r="D247" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>9</v>
@@ -5247,7 +5343,7 @@
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
       <c r="D248" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>9</v>
@@ -5259,9 +5355,11 @@
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
       <c r="D249" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E249" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F249" s="4"/>
     </row>
     <row r="250" s="1" customFormat="1" spans="1:6">
@@ -5269,7 +5367,7 @@
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
       <c r="D250" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>9</v>
@@ -5281,7 +5379,7 @@
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
       <c r="D251" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>9</v>
@@ -5293,7 +5391,7 @@
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
       <c r="D252" s="4" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>9</v>
@@ -5305,7 +5403,7 @@
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
       <c r="D253" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>9</v>
@@ -5317,7 +5415,7 @@
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
       <c r="D254" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>9</v>
@@ -5329,37 +5427,41 @@
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
       <c r="D255" s="4" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F255" s="4"/>
-    </row>
-    <row r="256" s="1" customFormat="1" spans="1:6">
+      <c r="F255" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="9"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
       <c r="D256" s="4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F256" s="4"/>
-    </row>
-    <row r="257" s="1" customFormat="1" spans="1:6">
+      <c r="F256" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="9"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
       <c r="D257" s="4" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5367,7 +5469,7 @@
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
       <c r="D258" s="4" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>9</v>
@@ -5381,11 +5483,9 @@
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
       <c r="D259" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="4" t="s">
         <v>209</v>
       </c>
@@ -5395,7 +5495,7 @@
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
       <c r="D260" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>9</v>
@@ -5409,11 +5509,13 @@
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
       <c r="D261" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E261" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F261" s="4" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5421,58 +5523,64 @@
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
       <c r="D262" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E262" s="3"/>
       <c r="F262" s="4" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="9"/>
       <c r="B263" s="10"/>
-      <c r="C263" s="10"/>
+      <c r="C263" s="12"/>
       <c r="D263" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="9"/>
       <c r="B264" s="10"/>
-      <c r="C264" s="10"/>
+      <c r="C264" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D264" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E264" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F264" s="4" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="9"/>
       <c r="B265" s="10"/>
-      <c r="C265" s="12"/>
+      <c r="C265" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="D265" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E265" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F265" s="4" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="9"/>
       <c r="B266" s="10"/>
       <c r="C266" s="4" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>212</v>
@@ -5480,31 +5588,27 @@
       <c r="E266" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F266" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="F266" s="4"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="9"/>
       <c r="B267" s="10"/>
       <c r="C267" s="4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F267" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="9"/>
       <c r="B268" s="10"/>
       <c r="C268" s="4" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>214</v>
@@ -5518,19 +5622,21 @@
       <c r="A269" s="9"/>
       <c r="B269" s="10"/>
       <c r="C269" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E269" s="3"/>
+      <c r="E269" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F269" s="4"/>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="9"/>
-      <c r="B270" s="10"/>
+      <c r="A270" s="11"/>
+      <c r="B270" s="12"/>
       <c r="C270" s="4" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>216</v>
@@ -5541,13 +5647,17 @@
       <c r="F270" s="4"/>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="9"/>
-      <c r="B271" s="10"/>
+      <c r="A271" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="C271" s="4" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>9</v>
@@ -5555,57 +5665,53 @@
       <c r="F271" s="4"/>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="11"/>
-      <c r="B272" s="12"/>
+      <c r="A272" s="9"/>
+      <c r="B272" s="10"/>
       <c r="C272" s="4" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D272" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="9"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E272" s="3"/>
-      <c r="F272" s="4"/>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="E273" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" s="1" customFormat="1" spans="1:6">
       <c r="A274" s="9"/>
       <c r="B274" s="10"/>
-      <c r="C274" s="4" t="s">
-        <v>131</v>
+      <c r="C274" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" s="1" customFormat="1" spans="1:6">
       <c r="A275" s="9"/>
       <c r="B275" s="10"/>
-      <c r="C275" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="C275" s="10"/>
       <c r="D275" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>9</v>
@@ -5615,11 +5721,9 @@
     <row r="276" s="1" customFormat="1" spans="1:6">
       <c r="A276" s="9"/>
       <c r="B276" s="10"/>
-      <c r="C276" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="C276" s="10"/>
       <c r="D276" s="4" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>9</v>
@@ -5631,7 +5735,7 @@
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
       <c r="D277" s="4" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>9</v>
@@ -5643,7 +5747,7 @@
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
       <c r="D278" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>9</v>
@@ -5655,7 +5759,7 @@
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
       <c r="D279" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>9</v>
@@ -5667,7 +5771,7 @@
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
       <c r="D280" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>9</v>
@@ -5679,7 +5783,7 @@
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
       <c r="D281" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>9</v>
@@ -5691,7 +5795,7 @@
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
       <c r="D282" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>9</v>
@@ -5703,7 +5807,7 @@
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
       <c r="D283" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>9</v>
@@ -5715,7 +5819,7 @@
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
       <c r="D284" s="4" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>9</v>
@@ -5727,7 +5831,7 @@
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
       <c r="D285" s="4" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>9</v>
@@ -5739,7 +5843,7 @@
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
       <c r="D286" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>9</v>
@@ -5751,7 +5855,7 @@
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
       <c r="D287" s="4" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>9</v>
@@ -5763,7 +5867,7 @@
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
       <c r="D288" s="4" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>9</v>
@@ -5775,7 +5879,7 @@
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
       <c r="D289" s="4" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>9</v>
@@ -5787,7 +5891,7 @@
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
       <c r="D290" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>9</v>
@@ -5799,7 +5903,7 @@
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
       <c r="D291" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>9</v>
@@ -5811,7 +5915,7 @@
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
       <c r="D292" s="4" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>9</v>
@@ -5823,7 +5927,7 @@
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
       <c r="D293" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>9</v>
@@ -5835,9 +5939,11 @@
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
       <c r="D294" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E294" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F294" s="4"/>
     </row>
     <row r="295" s="1" customFormat="1" spans="1:6">
@@ -5845,7 +5951,7 @@
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
       <c r="D295" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>9</v>
@@ -5857,7 +5963,7 @@
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
       <c r="D296" s="4" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>9</v>
@@ -5869,37 +5975,41 @@
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
       <c r="D297" s="4" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F297" s="4"/>
-    </row>
-    <row r="298" s="1" customFormat="1" spans="1:6">
+      <c r="F297" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="9"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
       <c r="D298" s="4" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F298" s="4"/>
-    </row>
-    <row r="299" s="1" customFormat="1" spans="1:6">
+      <c r="F298" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="9"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
       <c r="D299" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -5907,13 +6017,13 @@
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
       <c r="D300" s="4" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -5921,13 +6031,13 @@
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
       <c r="D301" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -5935,58 +6045,60 @@
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
       <c r="D302" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E302" s="3"/>
       <c r="F302" s="4" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="9"/>
       <c r="B303" s="10"/>
-      <c r="C303" s="10"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" spans="1:6">
       <c r="A304" s="9"/>
       <c r="B304" s="10"/>
-      <c r="C304" s="10"/>
+      <c r="C304" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="D304" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E304" s="3"/>
-      <c r="F304" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>212</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" s="1" customFormat="1" spans="1:6">
       <c r="A305" s="9"/>
       <c r="B305" s="10"/>
-      <c r="C305" s="12"/>
+      <c r="C305" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="D305" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E305" s="3"/>
-      <c r="F305" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" s="4"/>
     </row>
     <row r="306" s="1" customFormat="1" spans="1:6">
       <c r="A306" s="9"/>
       <c r="B306" s="10"/>
       <c r="C306" s="4" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>214</v>
@@ -6000,19 +6112,21 @@
       <c r="A307" s="9"/>
       <c r="B307" s="10"/>
       <c r="C307" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E307" s="3"/>
+      <c r="E307" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F307" s="4"/>
     </row>
     <row r="308" s="1" customFormat="1" spans="1:6">
       <c r="A308" s="9"/>
       <c r="B308" s="10"/>
       <c r="C308" s="4" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>216</v>
@@ -6022,74 +6136,78 @@
       </c>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" s="1" customFormat="1" spans="1:6">
+    <row r="309" spans="1:6">
       <c r="A309" s="9"/>
       <c r="B309" s="10"/>
-      <c r="C309" s="4" t="s">
-        <v>185</v>
+      <c r="C309" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" s="1" customFormat="1" spans="1:6">
+    <row r="310" spans="1:6">
       <c r="A310" s="9"/>
       <c r="B310" s="10"/>
-      <c r="C310" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="C310" s="10"/>
       <c r="D310" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E310" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F310" s="4"/>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="9"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="A311" s="11"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C312" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E311" s="3"/>
-      <c r="F311" s="4"/>
-    </row>
-    <row r="312" spans="1:6">
-      <c r="A312" s="9"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="10"/>
-      <c r="D312" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E312" s="3"/>
+      <c r="D312" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F312" s="4"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="11"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
-      <c r="D313" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E313" s="3"/>
+      <c r="A313" s="9"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F313" s="4"/>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>227</v>
-      </c>
+      <c r="A314" s="9"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
       <c r="D314" s="13" t="s">
         <v>228</v>
       </c>
@@ -6123,7 +6241,7 @@
       <c r="F316" s="4"/>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="9"/>
+      <c r="A317" s="11"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="13" t="s">
@@ -6135,37 +6253,39 @@
       <c r="F317" s="4"/>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="9"/>
-      <c r="B318" s="5"/>
-      <c r="C318" s="5"/>
-      <c r="D318" s="13" t="s">
+      <c r="A318" s="7">
+        <v>4</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C318" s="8" t="s">
         <v>232</v>
       </c>
+      <c r="D318" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="E318" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F318" s="4"/>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="11"/>
-      <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
-      <c r="D319" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E319" s="3"/>
+      <c r="A319" s="9"/>
+      <c r="B319" s="10"/>
+      <c r="C319" s="10"/>
+      <c r="D319" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F319" s="4"/>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="7">
-        <v>4</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="A320" s="9"/>
+      <c r="B320" s="10"/>
+      <c r="C320" s="10"/>
       <c r="D320" s="4" t="s">
         <v>235</v>
       </c>
@@ -6191,11 +6311,9 @@
       <c r="B322" s="10"/>
       <c r="C322" s="10"/>
       <c r="D322" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E322" s="3"/>
       <c r="F322" s="4"/>
     </row>
     <row r="323" spans="1:6">
@@ -6203,7 +6321,7 @@
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
       <c r="D323" s="4" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>9</v>
@@ -6215,9 +6333,11 @@
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
       <c r="D324" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E324" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F324" s="4"/>
     </row>
     <row r="325" spans="1:6">
@@ -6225,11 +6345,9 @@
       <c r="B325" s="10"/>
       <c r="C325" s="10"/>
       <c r="D325" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E325" s="3"/>
       <c r="F325" s="4"/>
     </row>
     <row r="326" spans="1:6">
@@ -6239,7 +6357,9 @@
       <c r="D326" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E326" s="3"/>
+      <c r="E326" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F326" s="4"/>
     </row>
     <row r="327" spans="1:6">
@@ -6249,7 +6369,9 @@
       <c r="D327" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E327" s="3"/>
+      <c r="E327" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F327" s="4"/>
     </row>
     <row r="328" spans="1:6">
@@ -6259,7 +6381,9 @@
       <c r="D328" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E328" s="3"/>
+      <c r="E328" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F328" s="4"/>
     </row>
     <row r="329" spans="1:6">
@@ -6279,7 +6403,7 @@
       <c r="B330" s="10"/>
       <c r="C330" s="10"/>
       <c r="D330" s="4" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>9</v>
@@ -6291,7 +6415,7 @@
       <c r="B331" s="10"/>
       <c r="C331" s="10"/>
       <c r="D331" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>9</v>
@@ -6303,7 +6427,7 @@
       <c r="B332" s="10"/>
       <c r="C332" s="10"/>
       <c r="D332" s="4" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>9</v>
@@ -6313,7 +6437,7 @@
     <row r="333" spans="1:6">
       <c r="A333" s="9"/>
       <c r="B333" s="10"/>
-      <c r="C333" s="10"/>
+      <c r="C333" s="12"/>
       <c r="D333" s="4" t="s">
         <v>245</v>
       </c>
@@ -6325,9 +6449,11 @@
     <row r="334" spans="1:6">
       <c r="A334" s="9"/>
       <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
+      <c r="C334" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="D334" s="4" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>9</v>
@@ -6337,9 +6463,9 @@
     <row r="335" spans="1:6">
       <c r="A335" s="9"/>
       <c r="B335" s="10"/>
-      <c r="C335" s="12"/>
+      <c r="C335" s="10"/>
       <c r="D335" s="4" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>9</v>
@@ -6349,11 +6475,9 @@
     <row r="336" spans="1:6">
       <c r="A336" s="9"/>
       <c r="B336" s="10"/>
-      <c r="C336" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="C336" s="12"/>
       <c r="D336" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>9</v>
@@ -6363,9 +6487,11 @@
     <row r="337" spans="1:6">
       <c r="A337" s="9"/>
       <c r="B337" s="10"/>
-      <c r="C337" s="10"/>
+      <c r="C337" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="D337" s="4" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>9</v>
@@ -6375,27 +6501,21 @@
     <row r="338" spans="1:6">
       <c r="A338" s="9"/>
       <c r="B338" s="10"/>
-      <c r="C338" s="12"/>
+      <c r="C338" s="10"/>
       <c r="D338" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E338" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E338" s="3"/>
       <c r="F338" s="4"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="9"/>
       <c r="B339" s="10"/>
-      <c r="C339" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="C339" s="10"/>
       <c r="D339" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E339" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E339" s="3"/>
       <c r="F339" s="4"/>
     </row>
     <row r="340" spans="1:6">
@@ -6425,7 +6545,9 @@
       <c r="D342" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E342" s="3"/>
+      <c r="E342" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F342" s="4"/>
     </row>
     <row r="343" spans="1:6">
@@ -6435,7 +6557,9 @@
       <c r="D343" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E343" s="3"/>
+      <c r="E343" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F343" s="4"/>
     </row>
     <row r="344" spans="1:6">
@@ -6479,7 +6603,7 @@
       <c r="B347" s="10"/>
       <c r="C347" s="10"/>
       <c r="D347" s="4" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>9</v>
@@ -6491,7 +6615,7 @@
       <c r="B348" s="10"/>
       <c r="C348" s="10"/>
       <c r="D348" s="4" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="E348" s="3" t="s">
         <v>9</v>
@@ -6503,7 +6627,7 @@
       <c r="B349" s="10"/>
       <c r="C349" s="10"/>
       <c r="D349" s="4" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>9</v>
@@ -6515,7 +6639,7 @@
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
       <c r="D350" s="4" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>9</v>
@@ -6525,9 +6649,9 @@
     <row r="351" spans="1:6">
       <c r="A351" s="9"/>
       <c r="B351" s="10"/>
-      <c r="C351" s="10"/>
+      <c r="C351" s="12"/>
       <c r="D351" s="4" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>9</v>
@@ -6537,9 +6661,11 @@
     <row r="352" spans="1:6">
       <c r="A352" s="9"/>
       <c r="B352" s="10"/>
-      <c r="C352" s="10"/>
+      <c r="C352" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="D352" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>9</v>
@@ -6549,9 +6675,11 @@
     <row r="353" spans="1:6">
       <c r="A353" s="9"/>
       <c r="B353" s="10"/>
-      <c r="C353" s="12"/>
+      <c r="C353" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="D353" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>9</v>
@@ -6561,23 +6689,17 @@
     <row r="354" spans="1:6">
       <c r="A354" s="9"/>
       <c r="B354" s="10"/>
-      <c r="C354" s="5" t="s">
-        <v>262</v>
-      </c>
+      <c r="C354" s="10"/>
       <c r="D354" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E354" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E354" s="3"/>
       <c r="F354" s="4"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="9"/>
       <c r="B355" s="10"/>
-      <c r="C355" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="C355" s="10"/>
       <c r="D355" s="4" t="s">
         <v>265</v>
       </c>
@@ -6587,7 +6709,7 @@
     <row r="356" spans="1:6">
       <c r="A356" s="9"/>
       <c r="B356" s="10"/>
-      <c r="C356" s="10"/>
+      <c r="C356" s="12"/>
       <c r="D356" s="4" t="s">
         <v>266</v>
       </c>
@@ -6597,17 +6719,21 @@
     <row r="357" spans="1:6">
       <c r="A357" s="9"/>
       <c r="B357" s="10"/>
-      <c r="C357" s="10"/>
+      <c r="C357" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="D357" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E357" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F357" s="4"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="9"/>
       <c r="B358" s="10"/>
-      <c r="C358" s="12"/>
+      <c r="C358" s="10"/>
       <c r="D358" s="4" t="s">
         <v>268</v>
       </c>
@@ -6617,11 +6743,9 @@
     <row r="359" spans="1:6">
       <c r="A359" s="9"/>
       <c r="B359" s="10"/>
-      <c r="C359" s="10" t="s">
+      <c r="C359" s="10"/>
+      <c r="D359" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D359" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>9</v>
@@ -6635,7 +6759,9 @@
       <c r="D360" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E360" s="3"/>
+      <c r="E360" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F360" s="4"/>
     </row>
     <row r="361" spans="1:6">
@@ -6643,31 +6769,31 @@
       <c r="B361" s="10"/>
       <c r="C361" s="10"/>
       <c r="D361" s="4" t="s">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" s="1" customFormat="1" spans="1:6">
       <c r="A362" s="9"/>
       <c r="B362" s="10"/>
       <c r="C362" s="10"/>
       <c r="D362" s="4" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" s="1" customFormat="1" spans="1:6">
       <c r="A363" s="9"/>
       <c r="B363" s="10"/>
       <c r="C363" s="10"/>
       <c r="D363" s="4" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>9</v>
@@ -6679,7 +6805,7 @@
       <c r="B364" s="10"/>
       <c r="C364" s="10"/>
       <c r="D364" s="4" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>9</v>
@@ -6691,7 +6817,7 @@
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
       <c r="D365" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>9</v>
@@ -6703,7 +6829,7 @@
       <c r="B366" s="10"/>
       <c r="C366" s="10"/>
       <c r="D366" s="4" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>9</v>
@@ -6715,7 +6841,7 @@
       <c r="B367" s="10"/>
       <c r="C367" s="10"/>
       <c r="D367" s="4" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>9</v>
@@ -6763,7 +6889,7 @@
       <c r="B371" s="10"/>
       <c r="C371" s="10"/>
       <c r="D371" s="4" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>9</v>
@@ -6775,7 +6901,7 @@
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
       <c r="D372" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>9</v>
@@ -6787,7 +6913,7 @@
       <c r="B373" s="10"/>
       <c r="C373" s="10"/>
       <c r="D373" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>9</v>
@@ -6799,53 +6925,61 @@
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
       <c r="D374" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E374" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" s="1" customFormat="1" spans="1:6">
+    <row r="375" spans="1:6">
       <c r="A375" s="9"/>
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
       <c r="D375" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E375" s="3"/>
-      <c r="F375" s="4"/>
-    </row>
-    <row r="376" s="1" customFormat="1" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" s="9"/>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
       <c r="D376" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E376" s="3"/>
-      <c r="F376" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="9"/>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
       <c r="D377" s="4" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="9"/>
       <c r="B378" s="10"/>
-      <c r="C378" s="10"/>
+      <c r="C378" s="12"/>
       <c r="D378" s="4" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>9</v>
@@ -6857,39 +6991,35 @@
     <row r="379" spans="1:6">
       <c r="A379" s="9"/>
       <c r="B379" s="10"/>
-      <c r="C379" s="10"/>
+      <c r="C379" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="D379" s="4" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F379" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="F379" s="4"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="9"/>
       <c r="B380" s="10"/>
-      <c r="C380" s="12"/>
+      <c r="C380" s="10"/>
       <c r="D380" s="4" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F380" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="F380" s="4"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="9"/>
       <c r="B381" s="10"/>
-      <c r="C381" s="8" t="s">
+      <c r="C381" s="10"/>
+      <c r="D381" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>9</v>
@@ -6901,7 +7031,7 @@
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
       <c r="D382" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>9</v>
@@ -6913,17 +7043,19 @@
       <c r="B383" s="10"/>
       <c r="C383" s="10"/>
       <c r="D383" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E383" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F383" s="4"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="9"/>
       <c r="B384" s="10"/>
-      <c r="C384" s="10"/>
+      <c r="C384" s="12"/>
       <c r="D384" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>9</v>
@@ -6933,35 +7065,39 @@
     <row r="385" spans="1:6">
       <c r="A385" s="9"/>
       <c r="B385" s="10"/>
-      <c r="C385" s="10"/>
+      <c r="C385" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D385" s="4" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" s="1" customFormat="1" spans="1:6">
       <c r="A386" s="9"/>
       <c r="B386" s="10"/>
-      <c r="C386" s="12"/>
+      <c r="C386" s="10"/>
       <c r="D386" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E386" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" s="1" customFormat="1" spans="1:6">
       <c r="A387" s="9"/>
       <c r="B387" s="10"/>
-      <c r="C387" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="C387" s="10"/>
       <c r="D387" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E387" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F387" s="4"/>
     </row>
     <row r="388" s="1" customFormat="1" spans="1:6">
@@ -6969,9 +7105,11 @@
       <c r="B388" s="10"/>
       <c r="C388" s="10"/>
       <c r="D388" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E388" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F388" s="4"/>
     </row>
     <row r="389" s="1" customFormat="1" spans="1:6">
@@ -6979,29 +7117,35 @@
       <c r="B389" s="10"/>
       <c r="C389" s="10"/>
       <c r="D389" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E389" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" s="1" customFormat="1" spans="1:6">
+    <row r="390" spans="1:6">
       <c r="A390" s="9"/>
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
       <c r="D390" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E390" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" s="1" customFormat="1" spans="1:6">
+    <row r="391" spans="1:6">
       <c r="A391" s="9"/>
       <c r="B391" s="10"/>
       <c r="C391" s="10"/>
       <c r="D391" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E391" s="3"/>
+      <c r="E391" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F391" s="4"/>
     </row>
     <row r="392" spans="1:6">
@@ -7011,7 +7155,9 @@
       <c r="D392" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E392" s="3"/>
+      <c r="E392" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F392" s="4"/>
     </row>
     <row r="393" spans="1:6">
@@ -7021,71 +7167,83 @@
       <c r="D393" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E393" s="3"/>
+      <c r="E393" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F393" s="4"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="9"/>
       <c r="B394" s="10"/>
-      <c r="C394" s="10"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E394" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F394" s="4"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="9"/>
       <c r="B395" s="10"/>
-      <c r="C395" s="10"/>
+      <c r="C395" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D395" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E395" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F395" s="4"/>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="9"/>
-      <c r="B396" s="10"/>
+      <c r="A396" s="11"/>
+      <c r="B396" s="12"/>
       <c r="C396" s="12"/>
       <c r="D396" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E396" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F396" s="4"/>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="9"/>
-      <c r="B397" s="10"/>
+      <c r="A397" s="7">
+        <v>5</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="C397" s="8" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E397" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F397" s="4"/>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="11"/>
-      <c r="B398" s="12"/>
-      <c r="C398" s="12"/>
+      <c r="A398" s="9"/>
+      <c r="B398" s="10"/>
+      <c r="C398" s="10"/>
       <c r="D398" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E398" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F398" s="4"/>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="7">
-        <v>5</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>294</v>
-      </c>
+      <c r="A399" s="9"/>
+      <c r="B399" s="10"/>
+      <c r="C399" s="10"/>
       <c r="D399" s="4" t="s">
         <v>295</v>
       </c>
@@ -7111,7 +7269,7 @@
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
       <c r="D401" s="4" t="s">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>9</v>
@@ -7123,11 +7281,9 @@
       <c r="B402" s="10"/>
       <c r="C402" s="10"/>
       <c r="D402" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E402" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E402" s="3"/>
       <c r="F402" s="4"/>
     </row>
     <row r="403" spans="1:6">
@@ -7135,7 +7291,7 @@
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
       <c r="D403" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>9</v>
@@ -7147,7 +7303,7 @@
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
       <c r="D404" s="4" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="E404" s="3"/>
       <c r="F404" s="4"/>
@@ -7157,11 +7313,9 @@
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
       <c r="D405" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E405" s="3"/>
       <c r="F405" s="4"/>
     </row>
     <row r="406" spans="1:6">
@@ -7171,7 +7325,9 @@
       <c r="D406" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E406" s="3"/>
+      <c r="E406" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F406" s="4"/>
     </row>
     <row r="407" spans="1:6">
@@ -7181,7 +7337,9 @@
       <c r="D407" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E407" s="3"/>
+      <c r="E407" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F407" s="4"/>
     </row>
     <row r="408" spans="1:6">
@@ -7191,7 +7349,9 @@
       <c r="D408" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E408" s="3"/>
+      <c r="E408" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F408" s="4"/>
     </row>
     <row r="409" spans="1:6">
@@ -7199,9 +7359,11 @@
       <c r="B409" s="10"/>
       <c r="C409" s="10"/>
       <c r="D409" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E409" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F409" s="4"/>
     </row>
     <row r="410" spans="1:6">
@@ -7209,7 +7371,7 @@
       <c r="B410" s="10"/>
       <c r="C410" s="10"/>
       <c r="D410" s="4" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="E410" s="3" t="s">
         <v>9</v>
@@ -7221,7 +7383,7 @@
       <c r="B411" s="10"/>
       <c r="C411" s="10"/>
       <c r="D411" s="4" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>9</v>
@@ -7233,7 +7395,7 @@
       <c r="B412" s="10"/>
       <c r="C412" s="10"/>
       <c r="D412" s="4" t="s">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="E412" s="3" t="s">
         <v>9</v>
@@ -7257,7 +7419,7 @@
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
       <c r="D414" s="4" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>9</v>
@@ -7269,7 +7431,7 @@
       <c r="B415" s="10"/>
       <c r="C415" s="10"/>
       <c r="D415" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>9</v>
@@ -7281,11 +7443,9 @@
       <c r="B416" s="10"/>
       <c r="C416" s="10"/>
       <c r="D416" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E416" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E416" s="3"/>
       <c r="F416" s="4"/>
     </row>
     <row r="417" spans="1:6">
@@ -7303,7 +7463,7 @@
     <row r="418" spans="1:6">
       <c r="A418" s="9"/>
       <c r="B418" s="10"/>
-      <c r="C418" s="10"/>
+      <c r="C418" s="12"/>
       <c r="D418" s="4" t="s">
         <v>308</v>
       </c>
@@ -7313,9 +7473,11 @@
     <row r="419" spans="1:6">
       <c r="A419" s="9"/>
       <c r="B419" s="10"/>
-      <c r="C419" s="10"/>
+      <c r="C419" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="D419" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>9</v>
@@ -7325,9 +7487,9 @@
     <row r="420" spans="1:6">
       <c r="A420" s="9"/>
       <c r="B420" s="10"/>
-      <c r="C420" s="12"/>
+      <c r="C420" s="10"/>
       <c r="D420" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E420" s="3"/>
       <c r="F420" s="4"/>
@@ -7335,9 +7497,7 @@
     <row r="421" spans="1:6">
       <c r="A421" s="9"/>
       <c r="B421" s="10"/>
-      <c r="C421" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="C421" s="10"/>
       <c r="D421" s="4" t="s">
         <v>312</v>
       </c>
@@ -7353,7 +7513,9 @@
       <c r="D422" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E422" s="3"/>
+      <c r="E422" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F422" s="4"/>
     </row>
     <row r="423" spans="1:6">
@@ -7373,9 +7535,11 @@
       <c r="B424" s="10"/>
       <c r="C424" s="10"/>
       <c r="D424" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E424" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F424" s="4"/>
     </row>
     <row r="425" spans="1:6">
@@ -7383,7 +7547,7 @@
       <c r="B425" s="10"/>
       <c r="C425" s="10"/>
       <c r="D425" s="4" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>9</v>
@@ -7395,7 +7559,7 @@
       <c r="B426" s="10"/>
       <c r="C426" s="10"/>
       <c r="D426" s="4" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="E426" s="3" t="s">
         <v>9</v>
@@ -7407,11 +7571,9 @@
       <c r="B427" s="10"/>
       <c r="C427" s="10"/>
       <c r="D427" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E427" s="3"/>
       <c r="F427" s="4"/>
     </row>
     <row r="428" spans="1:6">
@@ -7419,7 +7581,7 @@
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
       <c r="D428" s="4" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>9</v>
@@ -7431,9 +7593,11 @@
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
       <c r="D429" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E429" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6">
@@ -7443,9 +7607,7 @@
       <c r="D430" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E430" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E430" s="3"/>
       <c r="F430" s="4"/>
     </row>
     <row r="431" spans="1:6">
@@ -7455,7 +7617,9 @@
       <c r="D431" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E431" s="3"/>
+      <c r="E431" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F431" s="4"/>
     </row>
     <row r="432" spans="1:6">
@@ -7465,7 +7629,9 @@
       <c r="D432" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E432" s="3"/>
+      <c r="E432" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F432" s="4"/>
     </row>
     <row r="433" spans="1:6">
@@ -7511,9 +7677,7 @@
       <c r="D436" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E436" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E436" s="3"/>
       <c r="F436" s="4"/>
     </row>
     <row r="437" spans="1:6">
@@ -7531,9 +7695,11 @@
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
       <c r="D438" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E438" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F438" s="4"/>
     </row>
     <row r="439" spans="1:6">
@@ -7541,59 +7707,57 @@
       <c r="B439" s="10"/>
       <c r="C439" s="10"/>
       <c r="D439" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="11"/>
+      <c r="B440" s="12"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F440" s="4"/>
+    </row>
+    <row r="441" s="1" customFormat="1" spans="1:6">
+      <c r="A441" s="7">
+        <v>6</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D441" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E439" s="3"/>
-      <c r="F439" s="4"/>
-    </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="9"/>
-      <c r="B440" s="10"/>
-      <c r="C440" s="10"/>
-      <c r="D440" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E440" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F440" s="4"/>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="9"/>
-      <c r="B441" s="10"/>
-      <c r="C441" s="10"/>
-      <c r="D441" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E441" s="3"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="11"/>
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
+    <row r="442" s="1" customFormat="1" spans="1:6">
+      <c r="A442" s="9"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="10"/>
       <c r="D442" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E442" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E442" s="3"/>
       <c r="F442" s="4"/>
     </row>
     <row r="443" s="1" customFormat="1" spans="1:6">
-      <c r="A443" s="7">
-        <v>6</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C443" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="A443" s="9"/>
+      <c r="B443" s="15"/>
+      <c r="C443" s="10"/>
       <c r="D443" s="4" t="s">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="E443" s="3"/>
       <c r="F443" s="4"/>
@@ -7603,7 +7767,7 @@
       <c r="B444" s="15"/>
       <c r="C444" s="10"/>
       <c r="D444" s="4" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="E444" s="3"/>
       <c r="F444" s="4"/>
@@ -7613,7 +7777,7 @@
       <c r="B445" s="15"/>
       <c r="C445" s="10"/>
       <c r="D445" s="4" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="E445" s="3"/>
       <c r="F445" s="4"/>
@@ -7623,7 +7787,7 @@
       <c r="B446" s="15"/>
       <c r="C446" s="10"/>
       <c r="D446" s="4" t="s">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="E446" s="3"/>
       <c r="F446" s="4"/>
@@ -7633,7 +7797,7 @@
       <c r="B447" s="15"/>
       <c r="C447" s="10"/>
       <c r="D447" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E447" s="3"/>
       <c r="F447" s="4"/>
@@ -7641,29 +7805,31 @@
     <row r="448" s="1" customFormat="1" spans="1:6">
       <c r="A448" s="9"/>
       <c r="B448" s="15"/>
-      <c r="C448" s="10"/>
+      <c r="C448" s="12"/>
       <c r="D448" s="4" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="E448" s="3"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" s="1" customFormat="1" spans="1:6">
+    <row r="449" spans="1:6">
       <c r="A449" s="9"/>
       <c r="B449" s="15"/>
-      <c r="C449" s="10"/>
+      <c r="C449" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D449" s="4" t="s">
-        <v>331</v>
+        <v>17</v>
       </c>
       <c r="E449" s="3"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" s="1" customFormat="1" spans="1:6">
+    <row r="450" spans="1:6">
       <c r="A450" s="9"/>
       <c r="B450" s="15"/>
       <c r="C450" s="12"/>
       <c r="D450" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E450" s="3"/>
       <c r="F450" s="4"/>
@@ -7672,10 +7838,10 @@
       <c r="A451" s="9"/>
       <c r="B451" s="15"/>
       <c r="C451" s="8" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E451" s="3"/>
       <c r="F451" s="4"/>
@@ -7683,9 +7849,9 @@
     <row r="452" spans="1:6">
       <c r="A452" s="9"/>
       <c r="B452" s="15"/>
-      <c r="C452" s="12"/>
+      <c r="C452" s="10"/>
       <c r="D452" s="4" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="E452" s="3"/>
       <c r="F452" s="4"/>
@@ -7693,11 +7859,9 @@
     <row r="453" spans="1:6">
       <c r="A453" s="9"/>
       <c r="B453" s="15"/>
-      <c r="C453" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="C453" s="10"/>
       <c r="D453" s="4" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="E453" s="3"/>
       <c r="F453" s="4"/>
@@ -7707,97 +7871,111 @@
       <c r="B454" s="15"/>
       <c r="C454" s="10"/>
       <c r="D454" s="4" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="E454" s="3"/>
       <c r="F454" s="4"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" s="9"/>
-      <c r="B455" s="15"/>
-      <c r="C455" s="10"/>
+      <c r="A455" s="11"/>
+      <c r="B455" s="16"/>
+      <c r="C455" s="12"/>
       <c r="D455" s="4" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="E455" s="3"/>
       <c r="F455" s="4"/>
     </row>
     <row r="456" spans="1:6">
-      <c r="A456" s="9"/>
-      <c r="B456" s="15"/>
-      <c r="C456" s="10"/>
+      <c r="A456" s="7">
+        <v>7</v>
+      </c>
+      <c r="B456" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="D456" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E456" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F456" s="4"/>
     </row>
     <row r="457" spans="1:6">
-      <c r="A457" s="11"/>
-      <c r="B457" s="16"/>
-      <c r="C457" s="12"/>
+      <c r="A457" s="9"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="10"/>
       <c r="D457" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E457" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F457" s="4"/>
     </row>
     <row r="458" spans="1:6">
-      <c r="A458" s="7">
-        <v>7</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>336</v>
-      </c>
+      <c r="A458" s="9"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="10"/>
       <c r="D458" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E458" s="3"/>
+      <c r="E458" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F458" s="4"/>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="9"/>
       <c r="B459" s="15"/>
-      <c r="C459" s="10"/>
+      <c r="C459" s="12"/>
       <c r="D459" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E459" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" s="1" customFormat="1" spans="1:6">
       <c r="A460" s="9"/>
       <c r="B460" s="15"/>
-      <c r="C460" s="10"/>
+      <c r="C460" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="D460" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E460" s="3"/>
+      <c r="E460" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" s="1" customFormat="1" spans="1:6">
       <c r="A461" s="9"/>
       <c r="B461" s="15"/>
-      <c r="C461" s="12"/>
+      <c r="C461" s="10"/>
       <c r="D461" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E461" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F461" s="4"/>
     </row>
     <row r="462" s="1" customFormat="1" spans="1:6">
       <c r="A462" s="9"/>
       <c r="B462" s="15"/>
-      <c r="C462" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="C462" s="10"/>
       <c r="D462" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E462" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F462" s="4"/>
     </row>
     <row r="463" s="1" customFormat="1" spans="1:6">
@@ -7805,9 +7983,11 @@
       <c r="B463" s="15"/>
       <c r="C463" s="10"/>
       <c r="D463" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E463" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F463" s="4"/>
     </row>
     <row r="464" s="1" customFormat="1" spans="1:6">
@@ -7815,9 +7995,11 @@
       <c r="B464" s="15"/>
       <c r="C464" s="10"/>
       <c r="D464" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E464" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F464" s="4"/>
     </row>
     <row r="465" s="1" customFormat="1" spans="1:6">
@@ -7825,9 +8007,11 @@
       <c r="B465" s="15"/>
       <c r="C465" s="10"/>
       <c r="D465" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E465" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F465" s="4"/>
     </row>
     <row r="466" s="1" customFormat="1" spans="1:6">
@@ -7835,47 +8019,53 @@
       <c r="B466" s="15"/>
       <c r="C466" s="10"/>
       <c r="D466" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E466" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F466" s="4"/>
     </row>
     <row r="467" s="1" customFormat="1" spans="1:6">
       <c r="A467" s="9"/>
       <c r="B467" s="15"/>
-      <c r="C467" s="10"/>
+      <c r="C467" s="12"/>
       <c r="D467" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E467" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" s="1" customFormat="1" spans="1:6">
+    <row r="468" spans="1:6">
       <c r="A468" s="9"/>
       <c r="B468" s="15"/>
-      <c r="C468" s="10"/>
+      <c r="C468" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="D468" s="4" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E468" s="3"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" s="1" customFormat="1" spans="1:6">
+    <row r="469" spans="1:6">
       <c r="A469" s="9"/>
       <c r="B469" s="15"/>
       <c r="C469" s="10"/>
       <c r="D469" s="4" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="E469" s="3"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" s="1" customFormat="1" spans="1:6">
+    <row r="470" spans="1:6">
       <c r="A470" s="9"/>
       <c r="B470" s="15"/>
       <c r="C470" s="12"/>
       <c r="D470" s="4" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E470" s="3"/>
       <c r="F470" s="4"/>
@@ -7884,68 +8074,72 @@
       <c r="A471" s="9"/>
       <c r="B471" s="15"/>
       <c r="C471" s="8" t="s">
-        <v>343</v>
+        <v>65</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E471" s="3"/>
       <c r="F471" s="4"/>
     </row>
     <row r="472" spans="1:6">
-      <c r="A472" s="9"/>
-      <c r="B472" s="15"/>
-      <c r="C472" s="10"/>
+      <c r="A472" s="11"/>
+      <c r="B472" s="16"/>
+      <c r="C472" s="12"/>
       <c r="D472" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E472" s="3"/>
       <c r="F472" s="4"/>
     </row>
     <row r="473" spans="1:6">
-      <c r="A473" s="9"/>
-      <c r="B473" s="15"/>
-      <c r="C473" s="12"/>
+      <c r="A473" s="7">
+        <v>8</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="D473" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E473" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F473" s="4"/>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="9"/>
-      <c r="B474" s="15"/>
-      <c r="C474" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B474" s="10"/>
+      <c r="C474" s="10"/>
       <c r="D474" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E474" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F474" s="4"/>
     </row>
     <row r="475" spans="1:6">
-      <c r="A475" s="11"/>
-      <c r="B475" s="16"/>
-      <c r="C475" s="12"/>
+      <c r="A475" s="9"/>
+      <c r="B475" s="10"/>
+      <c r="C475" s="10"/>
       <c r="D475" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E475" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F475" s="4"/>
     </row>
     <row r="476" spans="1:6">
-      <c r="A476" s="7">
-        <v>8</v>
-      </c>
-      <c r="B476" s="8" t="s">
+      <c r="A476" s="9"/>
+      <c r="B476" s="10"/>
+      <c r="C476" s="10"/>
+      <c r="D476" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C476" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D476" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E476" s="3" t="s">
         <v>9</v>
@@ -7957,11 +8151,9 @@
       <c r="B477" s="10"/>
       <c r="C477" s="10"/>
       <c r="D477" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E477" s="3"/>
       <c r="F477" s="4"/>
     </row>
     <row r="478" spans="1:6">
@@ -7969,7 +8161,7 @@
       <c r="B478" s="10"/>
       <c r="C478" s="10"/>
       <c r="D478" s="4" t="s">
-        <v>33</v>
+        <v>351</v>
       </c>
       <c r="E478" s="3" t="s">
         <v>9</v>
@@ -7979,9 +8171,9 @@
     <row r="479" spans="1:6">
       <c r="A479" s="9"/>
       <c r="B479" s="10"/>
-      <c r="C479" s="10"/>
+      <c r="C479" s="12"/>
       <c r="D479" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E479" s="3"/>
       <c r="F479" s="4"/>
@@ -7989,116 +8181,128 @@
     <row r="480" spans="1:6">
       <c r="A480" s="9"/>
       <c r="B480" s="10"/>
-      <c r="C480" s="10"/>
+      <c r="C480" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D480" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E480" s="3"/>
       <c r="F480" s="4"/>
     </row>
     <row r="481" spans="1:6">
-      <c r="A481" s="9"/>
-      <c r="B481" s="10"/>
-      <c r="C481" s="10"/>
+      <c r="A481" s="11"/>
+      <c r="B481" s="12"/>
+      <c r="C481" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D481" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E481" s="3"/>
       <c r="F481" s="4"/>
     </row>
     <row r="482" spans="1:6">
-      <c r="A482" s="9"/>
-      <c r="B482" s="10"/>
-      <c r="C482" s="12"/>
-      <c r="D482" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E482" s="3"/>
+      <c r="A482" s="7">
+        <v>9</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D482" s="4"/>
+      <c r="E482" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F482" s="4"/>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="9"/>
       <c r="B483" s="10"/>
       <c r="C483" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E483" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D483" s="4"/>
+      <c r="E483" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F483" s="4"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" ht="15" customHeight="1" spans="1:6">
       <c r="A484" s="11"/>
       <c r="B484" s="12"/>
       <c r="C484" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D484" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E484" s="3"/>
+        <v>359</v>
+      </c>
+      <c r="D484" s="4"/>
+      <c r="E484" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F484" s="4"/>
     </row>
     <row r="485" spans="1:6">
-      <c r="A485" s="7">
-        <v>9</v>
-      </c>
-      <c r="B485" s="8" t="s">
-        <v>359</v>
+      <c r="A485" s="3">
+        <v>10</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D485" s="4"/>
       <c r="E485" s="3"/>
       <c r="F485" s="4"/>
     </row>
     <row r="486" spans="1:6">
-      <c r="A486" s="9"/>
-      <c r="B486" s="10"/>
+      <c r="A486" s="7">
+        <v>11</v>
+      </c>
+      <c r="B486" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="C486" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D486" s="4"/>
       <c r="E486" s="3"/>
       <c r="F486" s="4"/>
     </row>
-    <row r="487" ht="15" customHeight="1" spans="1:6">
-      <c r="A487" s="11"/>
-      <c r="B487" s="12"/>
-      <c r="C487" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D487" s="4"/>
-      <c r="E487" s="3"/>
+    <row r="487" spans="1:6">
+      <c r="A487" s="9"/>
+      <c r="B487" s="10"/>
+      <c r="C487" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F487" s="4"/>
     </row>
     <row r="488" spans="1:6">
-      <c r="A488" s="3">
-        <v>10</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D488" s="4"/>
-      <c r="E488" s="3"/>
+      <c r="A488" s="9"/>
+      <c r="B488" s="10"/>
+      <c r="C488" s="10"/>
+      <c r="D488" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F488" s="4"/>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="7">
-        <v>11</v>
-      </c>
-      <c r="B489" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D489" s="4"/>
+      <c r="A489" s="9"/>
+      <c r="B489" s="10"/>
+      <c r="C489" s="12"/>
+      <c r="D489" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="E489" s="3"/>
       <c r="F489" s="4"/>
     </row>
@@ -8106,10 +8310,10 @@
       <c r="A490" s="9"/>
       <c r="B490" s="10"/>
       <c r="C490" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E490" s="3"/>
       <c r="F490" s="4"/>
@@ -8119,7 +8323,7 @@
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
       <c r="D491" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E491" s="3"/>
       <c r="F491" s="4"/>
@@ -8127,9 +8331,9 @@
     <row r="492" spans="1:6">
       <c r="A492" s="9"/>
       <c r="B492" s="10"/>
-      <c r="C492" s="12"/>
+      <c r="C492" s="10"/>
       <c r="D492" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E492" s="3"/>
       <c r="F492" s="4"/>
@@ -8137,11 +8341,9 @@
     <row r="493" spans="1:6">
       <c r="A493" s="9"/>
       <c r="B493" s="10"/>
-      <c r="C493" s="8" t="s">
-        <v>369</v>
-      </c>
+      <c r="C493" s="10"/>
       <c r="D493" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E493" s="3"/>
       <c r="F493" s="4"/>
@@ -8151,7 +8353,7 @@
       <c r="B494" s="10"/>
       <c r="C494" s="10"/>
       <c r="D494" s="4" t="s">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="E494" s="3"/>
       <c r="F494" s="4"/>
@@ -8159,9 +8361,9 @@
     <row r="495" spans="1:6">
       <c r="A495" s="9"/>
       <c r="B495" s="10"/>
-      <c r="C495" s="10"/>
+      <c r="C495" s="12"/>
       <c r="D495" s="4" t="s">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="E495" s="3"/>
       <c r="F495" s="4"/>
@@ -8169,7 +8371,9 @@
     <row r="496" spans="1:6">
       <c r="A496" s="9"/>
       <c r="B496" s="10"/>
-      <c r="C496" s="10"/>
+      <c r="C496" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="D496" s="4" t="s">
         <v>373</v>
       </c>
@@ -8181,7 +8385,7 @@
       <c r="B497" s="10"/>
       <c r="C497" s="10"/>
       <c r="D497" s="4" t="s">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="E497" s="3"/>
       <c r="F497" s="4"/>
@@ -8191,7 +8395,7 @@
       <c r="B498" s="10"/>
       <c r="C498" s="12"/>
       <c r="D498" s="4" t="s">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="E498" s="3"/>
       <c r="F498" s="4"/>
@@ -8200,12 +8404,14 @@
       <c r="A499" s="9"/>
       <c r="B499" s="10"/>
       <c r="C499" s="8" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E499" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F499" s="4"/>
     </row>
     <row r="500" spans="1:6">
@@ -8213,29 +8419,31 @@
       <c r="B500" s="10"/>
       <c r="C500" s="10"/>
       <c r="D500" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E500" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F500" s="4"/>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="9"/>
       <c r="B501" s="10"/>
-      <c r="C501" s="12"/>
+      <c r="C501" s="10"/>
       <c r="D501" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E501" s="3"/>
+        <v>376</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F501" s="4"/>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="9"/>
       <c r="B502" s="10"/>
-      <c r="C502" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="C502" s="10"/>
       <c r="D502" s="4" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
       <c r="E502" s="3" t="s">
         <v>9</v>
@@ -8247,7 +8455,7 @@
       <c r="B503" s="10"/>
       <c r="C503" s="10"/>
       <c r="D503" s="4" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>9</v>
@@ -8257,9 +8465,9 @@
     <row r="504" spans="1:6">
       <c r="A504" s="9"/>
       <c r="B504" s="10"/>
-      <c r="C504" s="10"/>
+      <c r="C504" s="12"/>
       <c r="D504" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E504" s="3"/>
       <c r="F504" s="4"/>
@@ -8267,11 +8475,15 @@
     <row r="505" spans="1:6">
       <c r="A505" s="9"/>
       <c r="B505" s="10"/>
-      <c r="C505" s="10"/>
+      <c r="C505" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="D505" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E505" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F505" s="4"/>
     </row>
     <row r="506" spans="1:6">
@@ -8279,29 +8491,31 @@
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
       <c r="D506" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E506" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F506" s="4"/>
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="9"/>
       <c r="B507" s="10"/>
-      <c r="C507" s="12"/>
+      <c r="C507" s="10"/>
       <c r="D507" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E507" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F507" s="4"/>
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="9"/>
       <c r="B508" s="10"/>
-      <c r="C508" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="C508" s="10"/>
       <c r="D508" s="4" t="s">
-        <v>111</v>
+        <v>380</v>
       </c>
       <c r="E508" s="3" t="s">
         <v>9</v>
@@ -8313,7 +8527,7 @@
       <c r="B509" s="10"/>
       <c r="C509" s="10"/>
       <c r="D509" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E509" s="3" t="s">
         <v>9</v>
@@ -8325,7 +8539,7 @@
       <c r="B510" s="10"/>
       <c r="C510" s="10"/>
       <c r="D510" s="4" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E510" s="3" t="s">
         <v>9</v>
@@ -8337,7 +8551,7 @@
       <c r="B511" s="10"/>
       <c r="C511" s="10"/>
       <c r="D511" s="4" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="E511" s="3" t="s">
         <v>9</v>
@@ -8349,7 +8563,7 @@
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
       <c r="D512" s="4" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="E512" s="3" t="s">
         <v>9</v>
@@ -8361,7 +8575,7 @@
       <c r="B513" s="10"/>
       <c r="C513" s="10"/>
       <c r="D513" s="4" t="s">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>9</v>
@@ -8371,9 +8585,9 @@
     <row r="514" spans="1:6">
       <c r="A514" s="9"/>
       <c r="B514" s="10"/>
-      <c r="C514" s="10"/>
+      <c r="C514" s="12"/>
       <c r="D514" s="4" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="E514" s="3"/>
       <c r="F514" s="4"/>
@@ -8381,11 +8595,15 @@
     <row r="515" spans="1:6">
       <c r="A515" s="9"/>
       <c r="B515" s="10"/>
-      <c r="C515" s="10"/>
+      <c r="C515" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="D515" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E515" s="3"/>
+        <v>384</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F515" s="4"/>
     </row>
     <row r="516" spans="1:6">
@@ -8393,29 +8611,31 @@
       <c r="B516" s="10"/>
       <c r="C516" s="10"/>
       <c r="D516" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E516" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F516" s="4"/>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="9"/>
       <c r="B517" s="10"/>
-      <c r="C517" s="12"/>
+      <c r="C517" s="10"/>
       <c r="D517" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E517" s="3"/>
+        <v>385</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F517" s="4"/>
     </row>
     <row r="518" spans="1:6">
       <c r="A518" s="9"/>
       <c r="B518" s="10"/>
-      <c r="C518" s="8" t="s">
-        <v>385</v>
-      </c>
+      <c r="C518" s="10"/>
       <c r="D518" s="4" t="s">
-        <v>386</v>
+        <v>239</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>9</v>
@@ -8423,78 +8643,48 @@
       <c r="F518" s="4"/>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" s="9"/>
-      <c r="B519" s="10"/>
-      <c r="C519" s="10"/>
+      <c r="A519" s="11"/>
+      <c r="B519" s="12"/>
+      <c r="C519" s="12"/>
       <c r="D519" s="4" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="E519" s="3"/>
       <c r="F519" s="4"/>
     </row>
-    <row r="520" spans="1:6">
-      <c r="A520" s="9"/>
-      <c r="B520" s="10"/>
-      <c r="C520" s="10"/>
-      <c r="D520" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E520" s="3"/>
-      <c r="F520" s="4"/>
-    </row>
-    <row r="521" spans="1:6">
-      <c r="A521" s="9"/>
-      <c r="B521" s="10"/>
-      <c r="C521" s="10"/>
-      <c r="D521" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E521" s="3"/>
-      <c r="F521" s="4"/>
-    </row>
-    <row r="522" spans="1:6">
-      <c r="A522" s="11"/>
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
-      <c r="D522" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E522" s="3"/>
-      <c r="F522" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F522">
+  <autoFilter ref="A1:F519">
     <extLst/>
   </autoFilter>
   <mergeCells count="78">
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A100"/>
-    <mergeCell ref="A101:A116"/>
-    <mergeCell ref="A117:A228"/>
-    <mergeCell ref="A229:A272"/>
-    <mergeCell ref="A273:A313"/>
-    <mergeCell ref="A314:A319"/>
-    <mergeCell ref="A320:A398"/>
-    <mergeCell ref="A399:A442"/>
-    <mergeCell ref="A443:A457"/>
-    <mergeCell ref="A458:A475"/>
-    <mergeCell ref="A476:A484"/>
-    <mergeCell ref="A485:A487"/>
-    <mergeCell ref="A489:A522"/>
+    <mergeCell ref="A17:A99"/>
+    <mergeCell ref="A100:A115"/>
+    <mergeCell ref="A116:A226"/>
+    <mergeCell ref="A227:A270"/>
+    <mergeCell ref="A271:A311"/>
+    <mergeCell ref="A312:A317"/>
+    <mergeCell ref="A318:A396"/>
+    <mergeCell ref="A397:A440"/>
+    <mergeCell ref="A441:A455"/>
+    <mergeCell ref="A456:A472"/>
+    <mergeCell ref="A473:A481"/>
+    <mergeCell ref="A482:A484"/>
+    <mergeCell ref="A486:A519"/>
     <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B100"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B228"/>
-    <mergeCell ref="B229:B272"/>
-    <mergeCell ref="B273:B313"/>
-    <mergeCell ref="B314:B319"/>
-    <mergeCell ref="B320:B398"/>
-    <mergeCell ref="B399:B442"/>
-    <mergeCell ref="B443:B457"/>
-    <mergeCell ref="B458:B475"/>
-    <mergeCell ref="B476:B484"/>
-    <mergeCell ref="B485:B487"/>
-    <mergeCell ref="B489:B522"/>
+    <mergeCell ref="B17:B99"/>
+    <mergeCell ref="B100:B115"/>
+    <mergeCell ref="B116:B226"/>
+    <mergeCell ref="B227:B270"/>
+    <mergeCell ref="B271:B311"/>
+    <mergeCell ref="B312:B317"/>
+    <mergeCell ref="B318:B396"/>
+    <mergeCell ref="B397:B440"/>
+    <mergeCell ref="B441:B455"/>
+    <mergeCell ref="B456:B472"/>
+    <mergeCell ref="B473:B481"/>
+    <mergeCell ref="B482:B484"/>
+    <mergeCell ref="B486:B519"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C16"/>
@@ -8503,48 +8693,48 @@
     <mergeCell ref="C50:C56"/>
     <mergeCell ref="C57:C73"/>
     <mergeCell ref="C74:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C116"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="C132:C166"/>
-    <mergeCell ref="C167:C194"/>
-    <mergeCell ref="C195:C202"/>
-    <mergeCell ref="C203:C208"/>
-    <mergeCell ref="C209:C215"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="C220:C224"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="C233:C265"/>
-    <mergeCell ref="C276:C305"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C319"/>
-    <mergeCell ref="C320:C335"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="C339:C353"/>
-    <mergeCell ref="C355:C358"/>
-    <mergeCell ref="C359:C380"/>
-    <mergeCell ref="C381:C386"/>
-    <mergeCell ref="C387:C396"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="C399:C420"/>
-    <mergeCell ref="C421:C442"/>
-    <mergeCell ref="C443:C450"/>
-    <mergeCell ref="C451:C452"/>
-    <mergeCell ref="C453:C457"/>
-    <mergeCell ref="C458:C461"/>
-    <mergeCell ref="C462:C470"/>
-    <mergeCell ref="C471:C473"/>
-    <mergeCell ref="C474:C475"/>
-    <mergeCell ref="C476:C482"/>
-    <mergeCell ref="C490:C492"/>
-    <mergeCell ref="C493:C498"/>
-    <mergeCell ref="C499:C501"/>
-    <mergeCell ref="C502:C507"/>
-    <mergeCell ref="C508:C517"/>
-    <mergeCell ref="C518:C522"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="C87:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C115"/>
+    <mergeCell ref="C116:C124"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="C131:C165"/>
+    <mergeCell ref="C166:C193"/>
+    <mergeCell ref="C194:C201"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C231:C263"/>
+    <mergeCell ref="C274:C303"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="C312:C317"/>
+    <mergeCell ref="C318:C333"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="C337:C351"/>
+    <mergeCell ref="C353:C356"/>
+    <mergeCell ref="C357:C378"/>
+    <mergeCell ref="C379:C384"/>
+    <mergeCell ref="C385:C394"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="C397:C418"/>
+    <mergeCell ref="C419:C440"/>
+    <mergeCell ref="C441:C448"/>
+    <mergeCell ref="C449:C450"/>
+    <mergeCell ref="C451:C455"/>
+    <mergeCell ref="C456:C459"/>
+    <mergeCell ref="C460:C467"/>
+    <mergeCell ref="C468:C470"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="C473:C479"/>
+    <mergeCell ref="C487:C489"/>
+    <mergeCell ref="C490:C495"/>
+    <mergeCell ref="C496:C498"/>
+    <mergeCell ref="C499:C504"/>
+    <mergeCell ref="C505:C514"/>
+    <mergeCell ref="C515:C519"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
